--- a/PathPlanner/UserStudyData/SecondaryTaskScores.xlsx
+++ b/PathPlanner/UserStudyData/SecondaryTaskScores.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Secondary Task" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Groups" sheetId="3" r:id="rId3"/>
+    <sheet name="Surveys" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="174">
   <si>
     <t xml:space="preserve">Scenario 1 Manual </t>
   </si>
@@ -85,14 +86,475 @@
   </si>
   <si>
     <t>Scenario 1 Pattern</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>UFO</t>
+  </si>
+  <si>
+    <t>[00FF3E]@Eagle[FFFFFF] please acknowledge with your code name.</t>
+  </si>
+  <si>
+    <t>[00FF3E]@Eagle[FFFFFF] please report your current score.</t>
+  </si>
+  <si>
+    <t>[00FF3E]@Eagle[FFFFFF] please report time left.</t>
+  </si>
+  <si>
+    <t>1:49</t>
+  </si>
+  <si>
+    <t>2:17</t>
+  </si>
+  <si>
+    <t>2:27</t>
+  </si>
+  <si>
+    <t>2:36</t>
+  </si>
+  <si>
+    <t>2:44</t>
+  </si>
+  <si>
+    <t>2:59</t>
+  </si>
+  <si>
+    <t>3:20</t>
+  </si>
+  <si>
+    <t>3:36</t>
+  </si>
+  <si>
+    <t>3:51</t>
+  </si>
+  <si>
+    <t>4:01</t>
+  </si>
+  <si>
+    <t>4:15</t>
+  </si>
+  <si>
+    <t>4:26</t>
+  </si>
+  <si>
+    <t>4:39</t>
+  </si>
+  <si>
+    <t>[00FF3E]@Eagle[FFFFFF] FYI: Eagle is going through pre-flight check. Please acknowledge with your code name.</t>
+  </si>
+  <si>
+    <t>[00FF3E]@Eagle[FFFFFF] Which building are you in?</t>
+  </si>
+  <si>
+    <t>[00FF3E]@Eagle[FFFFFF] FYI: Eagle is doing a test flight. Please acknowledge with your code name.</t>
+  </si>
+  <si>
+    <t>[00FF3E]@Eagle[FFFFFF] please report the UAV flight duration for the current plan.</t>
+  </si>
+  <si>
+    <t>[00FF3E]@Eagle[FFFFFF] FYI: Eagle has safely landed and is ready for flight. Please acknowledge with your code name.</t>
+  </si>
+  <si>
+    <t>[00FF3E]@Eagle[FFFFFF] is the UAV planner working?</t>
+  </si>
+  <si>
+    <t>[00FF3E]@Eagle[FFFFFF] what planning mode are you in? Manual, pattern, or sliding autonomy?</t>
+  </si>
+  <si>
+    <t>[00FF3E]@Eagle[FFFFFF] are you using a task difficulty map?</t>
+  </si>
+  <si>
+    <t>[00FF3E]@Eagle[FFFFFF] what UAV icon do you see on the screen? UFO or fixed-wing?</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>0:28</t>
+  </si>
+  <si>
+    <t>0:40</t>
+  </si>
+  <si>
+    <t>0:50</t>
+  </si>
+  <si>
+    <t>1:00</t>
+  </si>
+  <si>
+    <t>1:20</t>
+  </si>
+  <si>
+    <t>1:29</t>
+  </si>
+  <si>
+    <t>1:48</t>
+  </si>
+  <si>
+    <t>1:58</t>
+  </si>
+  <si>
+    <t>2:12</t>
+  </si>
+  <si>
+    <t>2:24</t>
+  </si>
+  <si>
+    <t>2:42</t>
+  </si>
+  <si>
+    <t>2:53</t>
+  </si>
+  <si>
+    <t>3:08</t>
+  </si>
+  <si>
+    <t>3:16</t>
+  </si>
+  <si>
+    <t>3:32</t>
+  </si>
+  <si>
+    <t>3:42</t>
+  </si>
+  <si>
+    <t>3:55</t>
+  </si>
+  <si>
+    <t>4:28</t>
+  </si>
+  <si>
+    <t>Scenario 2 Manual</t>
+  </si>
+  <si>
+    <t>Secnario 1 Sliding</t>
+  </si>
+  <si>
+    <t>Sliding</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>0:22</t>
+  </si>
+  <si>
+    <t>0:41</t>
+  </si>
+  <si>
+    <t>0:54</t>
+  </si>
+  <si>
+    <t>1:07</t>
+  </si>
+  <si>
+    <t>1:17</t>
+  </si>
+  <si>
+    <t>1:34</t>
+  </si>
+  <si>
+    <t>1:54</t>
+  </si>
+  <si>
+    <t>2:21</t>
+  </si>
+  <si>
+    <t>3:07</t>
+  </si>
+  <si>
+    <t>3:15</t>
+  </si>
+  <si>
+    <t>3:38</t>
+  </si>
+  <si>
+    <t>3:48</t>
+  </si>
+  <si>
+    <t>4:14</t>
+  </si>
+  <si>
+    <t>4:29</t>
+  </si>
+  <si>
+    <t>4:38</t>
+  </si>
+  <si>
+    <t>4:55</t>
+  </si>
+  <si>
+    <t>Scenario 2 Pattern</t>
+  </si>
+  <si>
+    <t>0:14</t>
+  </si>
+  <si>
+    <t>0:18</t>
+  </si>
+  <si>
+    <t>0:31</t>
+  </si>
+  <si>
+    <t>0:45</t>
+  </si>
+  <si>
+    <t>1:15</t>
+  </si>
+  <si>
+    <t>1:24</t>
+  </si>
+  <si>
+    <t>1:40</t>
+  </si>
+  <si>
+    <t>2:08</t>
+  </si>
+  <si>
+    <t>2:23</t>
+  </si>
+  <si>
+    <t>2:38</t>
+  </si>
+  <si>
+    <t>3:33</t>
+  </si>
+  <si>
+    <t>3:57</t>
+  </si>
+  <si>
+    <t>4:04</t>
+  </si>
+  <si>
+    <t>4:23</t>
+  </si>
+  <si>
+    <t>4:37</t>
+  </si>
+  <si>
+    <t>4:51</t>
+  </si>
+  <si>
+    <t>5:13</t>
+  </si>
+  <si>
+    <t>Scenario 2 Sliding</t>
+  </si>
+  <si>
+    <t>0:37</t>
+  </si>
+  <si>
+    <t>0:55</t>
+  </si>
+  <si>
+    <t>1:08</t>
+  </si>
+  <si>
+    <t>1:31</t>
+  </si>
+  <si>
+    <t>1:38</t>
+  </si>
+  <si>
+    <t>1:46</t>
+  </si>
+  <si>
+    <t>2:00</t>
+  </si>
+  <si>
+    <t>2:33</t>
+  </si>
+  <si>
+    <t>2:45</t>
+  </si>
+  <si>
+    <t>2:56</t>
+  </si>
+  <si>
+    <t>3:35</t>
+  </si>
+  <si>
+    <t>3:54</t>
+  </si>
+  <si>
+    <t>4:13</t>
+  </si>
+  <si>
+    <t>4:46</t>
+  </si>
+  <si>
+    <t>4:58</t>
+  </si>
+  <si>
+    <t>sliding</t>
+  </si>
+  <si>
+    <t>Pilot1</t>
+  </si>
+  <si>
+    <t>Pilot2</t>
+  </si>
+  <si>
+    <t>Pilot3</t>
+  </si>
+  <si>
+    <t>Pilot4</t>
+  </si>
+  <si>
+    <t>Pilot5</t>
+  </si>
+  <si>
+    <t>Pilot6</t>
+  </si>
+  <si>
+    <t>Pilot7</t>
+  </si>
+  <si>
+    <t>Scenario 1 Manual</t>
+  </si>
+  <si>
+    <t>Scenario 1 Sliding</t>
+  </si>
+  <si>
+    <t>timeleft</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>mouseclicks</t>
+  </si>
+  <si>
+    <t>pathcomplete</t>
+  </si>
+  <si>
+    <t>I've no idea</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>fixed-wing</t>
+  </si>
+  <si>
+    <t>eagle</t>
+  </si>
+  <si>
+    <t>sliding mode</t>
+  </si>
+  <si>
+    <t>Less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>Eagl</t>
+  </si>
+  <si>
+    <t>tmcb</t>
+  </si>
+  <si>
+    <t>fixed wing</t>
+  </si>
+  <si>
+    <t>ufo</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>slidingauto</t>
+  </si>
+  <si>
+    <t>eAGLE</t>
+  </si>
+  <si>
+    <t>Sure thing</t>
+  </si>
+  <si>
+    <t>Sometimes</t>
+  </si>
+  <si>
+    <t>Yep</t>
+  </si>
+  <si>
+    <t>Sliding autonomy</t>
+  </si>
+  <si>
+    <t>Yesx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have normal vision or corrected-to-normal vision? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corrected-to-normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have color blindness? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your level of experience working or playing with robots? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moderately experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience playing video games </t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Slightly experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Very experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not at all experienced</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,7 +570,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,13 +578,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,277 +921,3767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:AB133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="N17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="105.140625" customWidth="1"/>
+    <col min="2" max="2" width="110.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="3" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="U3" t="s">
+        <v>141</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="D4" s="6">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="6">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T4" s="1">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="U4">
+        <v>1629</v>
+      </c>
+      <c r="X4" s="1">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>3.0555555555555555E-2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="D5" s="6">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.5416666666666667</v>
+      </c>
+      <c r="L5" s="6">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="M5" s="7">
+        <v>820</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1.6111111111111109</v>
+      </c>
+      <c r="X5" s="1">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="Y5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>4.027777777777778E-2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1874</v>
+      </c>
+      <c r="L6" s="6">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="1">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="7">
         <v>1111</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="D7" s="6">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="6">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1786</v>
+      </c>
+      <c r="X7" s="1">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="Y7">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>5.6944444444444443E-2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="D8" s="6">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="6">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="1">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X8" s="1">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>7.0833333333333331E-2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="D9" s="6">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P9" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>139</v>
+      </c>
+      <c r="X9" s="1">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="D10" s="6">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="1">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>149</v>
+      </c>
+      <c r="X10" s="1">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>9.2361111111111116E-2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.11875000000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>0.10277777777777779</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="7">
         <v>1111</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="D12" s="6">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.1173611111111111</v>
+      </c>
+      <c r="Y12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>0.11041666666666666</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="X13" s="1">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="Y13">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>0.1173611111111111</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="C14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" s="1">
         <v>0.12569444444444444</v>
       </c>
-      <c r="B14" t="s">
+      <c r="Y14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="X15" s="1">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>0.1361111111111111</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>0.14861111111111111</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="X17" s="1">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="Y17">
+        <v>45.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>0.15694444444444444</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0.17291666666666669</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>0.17013888888888887</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="C19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.18680555555555556</v>
+      </c>
+      <c r="Y19">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>0.17708333333333334</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="7">
         <v>1111</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="X20" s="1">
+        <v>0.19166666666666665</v>
+      </c>
+      <c r="Y20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>0.18472222222222223</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="22" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>0.19722222222222222</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="25" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="1">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>14</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="U25" t="s">
+        <v>141</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1111</v>
+      </c>
+      <c r="D26" s="6">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>237</v>
+      </c>
+      <c r="L26" s="6">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3871</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.1173611111111111</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>14</v>
+      </c>
+      <c r="T26" s="1">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="U26">
+        <v>3709</v>
+      </c>
+      <c r="X26" s="1">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="Y26">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7">
+        <v>100</v>
+      </c>
+      <c r="D27" s="6">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="6">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T27" s="1">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="U27">
+        <v>250</v>
+      </c>
+      <c r="X27" s="1">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="Y27">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="T28" s="1">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="U28" t="s">
+        <v>141</v>
+      </c>
+      <c r="X28" s="1">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0.12013888888888889</v>
+      </c>
+      <c r="U29"/>
+      <c r="X29" s="1">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="U30">
+        <v>4215</v>
+      </c>
+      <c r="X30" s="1">
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="U31" t="s">
+        <v>150</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="U32" t="s">
+        <v>148</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0.11319444444444444</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="Y33">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1111</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0.17430555555555557</v>
+      </c>
+      <c r="Y38">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0.18194444444444444</v>
+      </c>
+      <c r="Y39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1111</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0.1986111111111111</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="6">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="L47" s="1">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="M47" t="s">
+        <v>14</v>
+      </c>
+      <c r="P47" s="1">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="Q47">
+        <v>190</v>
+      </c>
+      <c r="T47" s="1">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="U47">
+        <v>2105</v>
+      </c>
+      <c r="X47" s="1">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1111</v>
+      </c>
+      <c r="D48" s="6">
+        <v>6.0416666666666667E-2</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="L48" s="1">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="M48">
+        <v>1085</v>
+      </c>
+      <c r="T48" s="1">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="U48" t="s">
+        <v>148</v>
+      </c>
+      <c r="X48" s="1">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="Y48">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="7">
+        <v>100</v>
+      </c>
+      <c r="D49" s="6">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="E49" s="7">
+        <v>5863</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="L49" s="1">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="M49" t="s">
+        <v>14</v>
+      </c>
+      <c r="T49" s="1">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="U49" t="s">
+        <v>141</v>
+      </c>
+      <c r="X49" s="1">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="Y49">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="6">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="L50" s="1">
+        <v>6.5277777777777782E-2</v>
+      </c>
+      <c r="M50"/>
+      <c r="T50" s="1">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="U50" t="s">
+        <v>123</v>
+      </c>
+      <c r="X50" s="1">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="L51" s="1">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="M51">
+        <v>3940</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0.10347222222222223</v>
+      </c>
+      <c r="U51" t="s">
+        <v>150</v>
+      </c>
+      <c r="X51" s="1">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="L52" s="1">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="M52"/>
+      <c r="T52" s="1">
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="U52" t="s">
+        <v>141</v>
+      </c>
+      <c r="X52" s="1">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="Y52"/>
+    </row>
+    <row r="53" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1111</v>
+      </c>
+      <c r="X53" s="1">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X54" s="1">
+        <v>8.2638888888888887E-2</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X55" s="1">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X56" s="1">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X57" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="Y57"/>
+    </row>
+    <row r="58" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="7">
+        <v>1111</v>
+      </c>
+      <c r="X58" s="1">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="Y58"/>
+    </row>
+    <row r="59" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="7">
+        <v>100</v>
+      </c>
+      <c r="X59" s="1">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="Y59"/>
+    </row>
+    <row r="60" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X60" s="1">
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="Y60">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X61" s="1">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="Y61">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X62" s="1">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0.16944444444444443</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X64" s="1">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X65" s="1">
+        <v>0.20208333333333331</v>
+      </c>
+      <c r="Y65">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="1">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="M69" t="s">
+        <v>18</v>
+      </c>
+      <c r="P69" s="1">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>141</v>
+      </c>
+      <c r="T69" s="1">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="U69" t="s">
+        <v>151</v>
+      </c>
+      <c r="X69" s="1">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="6">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="1">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="M70" t="s">
+        <v>139</v>
+      </c>
+      <c r="T70" s="1">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="U70" t="s">
+        <v>140</v>
+      </c>
+      <c r="X70" s="1">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="6">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" s="1">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="M71" t="s">
+        <v>14</v>
+      </c>
+      <c r="T71" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="U71" s="3">
+        <v>1.6388888888888891</v>
+      </c>
+      <c r="X71" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="6">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L72" s="1">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="M72"/>
+      <c r="T72" s="1">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="U72">
+        <v>529</v>
+      </c>
+      <c r="X72" s="1">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="6">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" s="1">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="M73"/>
+      <c r="T73" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="U73" t="s">
+        <v>148</v>
+      </c>
+      <c r="X73" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="Y73"/>
+    </row>
+    <row r="74" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="6">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L74" s="1">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="M74">
+        <v>15</v>
+      </c>
+      <c r="X74" s="1">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="Y74">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0.1013888888888889</v>
+      </c>
+      <c r="M75" t="s">
+        <v>139</v>
+      </c>
+      <c r="X75" s="1">
+        <v>0.10486111111111111</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0.11319444444444444</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="X76" s="1">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X77" s="1">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="Y77">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="X78" s="1">
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="7">
+        <v>1111</v>
+      </c>
+      <c r="X79" s="1">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="Y79">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="7">
+        <v>100</v>
+      </c>
+      <c r="X80" s="1">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="Y80">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X81" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="7">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="7">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="6">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="E91" s="6">
+        <v>0</v>
+      </c>
+      <c r="H91" s="6">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L91" s="1">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="M91" t="s">
+        <v>147</v>
+      </c>
+      <c r="P91" s="1">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>14</v>
+      </c>
+      <c r="T91" s="1">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="U91" s="3">
+        <v>2.2131944444444445</v>
+      </c>
+      <c r="X91" s="1">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="Y91"/>
+    </row>
+    <row r="92" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="6">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="6">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L92" s="1">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="M92"/>
+      <c r="P92" s="1">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>139</v>
+      </c>
+      <c r="T92" s="1">
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="U92" t="s">
+        <v>139</v>
+      </c>
+      <c r="X92" s="1">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="6">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="6">
+        <v>0.16944444444444443</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L93" s="1">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="M93" t="s">
+        <v>14</v>
+      </c>
+      <c r="T93" s="1">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="U93">
+        <v>850</v>
+      </c>
+      <c r="X93" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="Y93">
+        <v>59.03</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="6">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="E94" s="10">
+        <v>2.129861111111111</v>
+      </c>
+      <c r="H94" s="6">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="I94" s="7">
+        <v>1345</v>
+      </c>
+      <c r="L94" s="1">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="M94">
+        <v>1158</v>
+      </c>
+      <c r="T94" s="1">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="U94" t="s">
+        <v>141</v>
+      </c>
+      <c r="X94" s="1">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="6">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T95" s="1">
+        <v>0.13680555555555554</v>
+      </c>
+      <c r="U95" t="s">
+        <v>139</v>
+      </c>
+      <c r="X95" s="1">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="T96" s="1">
+        <v>0.16805555555555554</v>
+      </c>
+      <c r="U96" t="s">
+        <v>141</v>
+      </c>
+      <c r="X96" s="1">
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="Y96">
+        <v>37.44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="7">
+        <v>1111</v>
+      </c>
+      <c r="D97" s="6">
+        <v>0.1013888888888889</v>
+      </c>
+      <c r="E97" s="7">
+        <v>1278</v>
+      </c>
+      <c r="T97" s="1">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="U97">
+        <v>1331</v>
+      </c>
+      <c r="X97" s="1">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="Y97">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="7">
+        <v>100</v>
+      </c>
+      <c r="X98" s="1">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="Y98">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X99" s="1">
+        <v>9.1666666666666674E-2</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X100" s="1">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X101" s="1">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X102" s="1">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X103" s="1">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X104" s="1">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X105" s="1">
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" s="7">
+        <v>1111</v>
+      </c>
+      <c r="X106" s="1">
+        <v>0.17430555555555557</v>
+      </c>
+      <c r="Y106">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="7">
+        <v>100</v>
+      </c>
+      <c r="X107" s="1">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="Y107">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X108" s="1">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="7">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="6">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="E113" s="10">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L113" s="1">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="M113"/>
+      <c r="P113" s="1">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="Q113">
+        <v>1371</v>
+      </c>
+      <c r="T113" s="1">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="U113" t="s">
+        <v>152</v>
+      </c>
+      <c r="X113" s="1">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D114" s="6">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L114" s="1">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="M114" t="s">
+        <v>139</v>
+      </c>
+      <c r="P114" s="1">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="Q114">
+        <v>195</v>
+      </c>
+      <c r="T114" s="1">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="U114" t="s">
+        <v>141</v>
+      </c>
+      <c r="X114" s="1">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="Y114"/>
+    </row>
+    <row r="115" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="6">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E115" s="7">
+        <v>1446</v>
+      </c>
+      <c r="L115" s="1">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="M115" t="s">
+        <v>139</v>
+      </c>
+      <c r="P115" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>14</v>
+      </c>
+      <c r="T115" s="1">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="U115">
+        <v>190</v>
+      </c>
+      <c r="X115" s="1">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="6">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="E116" s="7">
+        <v>10</v>
+      </c>
+      <c r="L116" s="1">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="M116"/>
+      <c r="P116" s="1">
+        <v>0.14444444444444446</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>148</v>
+      </c>
+      <c r="T116" s="1">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="U116" t="s">
+        <v>148</v>
+      </c>
+      <c r="X116" s="1">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="6">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L117" s="1">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="M117" t="s">
+        <v>24</v>
+      </c>
+      <c r="P117" s="1">
+        <v>0.18611111111111112</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>14</v>
+      </c>
+      <c r="T117" s="1">
+        <v>0.1125</v>
+      </c>
+      <c r="U117">
+        <v>1605</v>
+      </c>
+      <c r="X117" s="1">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" s="7">
+        <v>1111</v>
+      </c>
+      <c r="L118" s="1">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="M118" t="s">
+        <v>14</v>
+      </c>
+      <c r="T118" s="1">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="U118" t="s">
+        <v>148</v>
+      </c>
+      <c r="X118" s="1">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="Y118">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="7">
+        <v>100</v>
+      </c>
+      <c r="L119" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M119"/>
+      <c r="T119" s="1">
+        <v>0.18680555555555556</v>
+      </c>
+      <c r="U119" t="s">
+        <v>141</v>
+      </c>
+      <c r="X119" s="1">
+        <v>8.2638888888888887E-2</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L120" s="1">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="M120" t="s">
+        <v>14</v>
+      </c>
+      <c r="T120" s="1">
+        <v>0.20416666666666669</v>
+      </c>
+      <c r="U120" t="s">
+        <v>139</v>
+      </c>
+      <c r="X120" s="1">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L121" s="1">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="M121" t="s">
+        <v>21</v>
+      </c>
+      <c r="X121" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Y121">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="M122" t="s">
+        <v>141</v>
+      </c>
+      <c r="X122" s="1">
+        <v>0.12013888888888889</v>
+      </c>
+      <c r="Y122">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" s="7">
+        <v>1111</v>
+      </c>
+      <c r="L123" s="1">
+        <v>0.11875000000000001</v>
+      </c>
+      <c r="M123">
+        <v>13</v>
+      </c>
+      <c r="X123" s="1">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" s="7">
+        <v>100</v>
+      </c>
+      <c r="X124" s="1">
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X125" s="1">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="Y125">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X126" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" s="7">
+        <v>1111</v>
+      </c>
+      <c r="X127" s="1">
+        <v>0.17222222222222225</v>
+      </c>
+      <c r="Y127">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X128" s="1">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="5">
+        <v>121</v>
+      </c>
+      <c r="D2" s="5">
+        <v>180</v>
+      </c>
+      <c r="E2" s="5">
+        <v>145</v>
+      </c>
+      <c r="F2" s="5">
+        <v>153</v>
+      </c>
+      <c r="G2" s="5">
+        <v>165</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3087</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4485</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2529</v>
+      </c>
+      <c r="F3" s="7">
+        <v>3247</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3120</v>
+      </c>
+      <c r="H3">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="7">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="5">
+        <v>216</v>
+      </c>
+      <c r="D6" s="5">
+        <v>181</v>
+      </c>
+      <c r="E6" s="5">
+        <v>146</v>
+      </c>
+      <c r="F6" s="5">
+        <v>74</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4423</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4434</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4363</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4607</v>
+      </c>
+      <c r="G7">
+        <v>4398</v>
+      </c>
+      <c r="H7">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="7">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7">
+        <v>67</v>
+      </c>
+      <c r="G8">
+        <v>89</v>
+      </c>
+      <c r="H8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="5">
+        <v>145</v>
+      </c>
+      <c r="D10" s="5">
+        <v>175</v>
+      </c>
+      <c r="E10" s="5">
+        <v>163</v>
+      </c>
+      <c r="F10" s="5">
+        <v>176</v>
+      </c>
+      <c r="G10" s="5">
+        <v>140</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="7">
+        <v>5863</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5921</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5861</v>
+      </c>
+      <c r="F11" s="7">
+        <v>288</v>
+      </c>
+      <c r="G11" s="7">
+        <v>5067</v>
+      </c>
+      <c r="H11">
+        <v>5846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7">
+        <v>34</v>
+      </c>
+      <c r="E12" s="7">
+        <v>36</v>
+      </c>
+      <c r="F12" s="7">
+        <v>46</v>
+      </c>
+      <c r="G12" s="7">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="5">
+        <v>135</v>
+      </c>
+      <c r="D14" s="5">
+        <v>169</v>
+      </c>
+      <c r="E14" s="5">
+        <v>151</v>
+      </c>
+      <c r="F14" s="5">
+        <v>152</v>
+      </c>
+      <c r="G14">
+        <v>81</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="7">
+        <v>861</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1341</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1224</v>
+      </c>
+      <c r="F15" s="7">
+        <v>930</v>
+      </c>
+      <c r="G15">
+        <v>677</v>
+      </c>
+      <c r="H15">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="7">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7">
+        <v>7</v>
+      </c>
+      <c r="F16" s="7">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>33</v>
+      </c>
+      <c r="H16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="5">
+        <v>152</v>
+      </c>
+      <c r="D18" s="5">
+        <v>39</v>
+      </c>
+      <c r="E18" s="5">
+        <v>192</v>
+      </c>
+      <c r="F18" s="5">
+        <v>182</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1278</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1345</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1158</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1307</v>
+      </c>
+      <c r="G19">
+        <v>1331</v>
+      </c>
+      <c r="H19">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="7">
+        <v>46</v>
+      </c>
+      <c r="D20" s="7">
+        <v>90</v>
+      </c>
+      <c r="E20" s="7">
+        <v>31</v>
+      </c>
+      <c r="F20" s="7">
+        <v>34</v>
+      </c>
+      <c r="G20">
+        <v>94</v>
+      </c>
+      <c r="H20">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="5">
+        <v>164</v>
+      </c>
+      <c r="D22" s="5">
+        <v>233</v>
+      </c>
+      <c r="E22" s="5">
+        <v>126</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1639</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1410</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1754</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1817</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1530</v>
+      </c>
+      <c r="H23">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="7">
+        <v>33</v>
+      </c>
+      <c r="D24" s="7">
+        <v>18</v>
+      </c>
+      <c r="E24" s="7">
+        <v>58</v>
+      </c>
+      <c r="F24" s="7">
+        <v>92</v>
+      </c>
+      <c r="G24" s="7">
+        <v>91</v>
+      </c>
+      <c r="H24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>